--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Wnt2-Fzd1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.668351</v>
+        <v>0.8596446666666667</v>
       </c>
       <c r="N2">
-        <v>2.005053</v>
+        <v>2.578934</v>
       </c>
       <c r="O2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="P2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="Q2">
-        <v>0.5567530917750001</v>
+        <v>0.7161054984500002</v>
       </c>
       <c r="R2">
-        <v>5.010777825975001</v>
+        <v>6.444949486050001</v>
       </c>
       <c r="S2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
       <c r="T2">
-        <v>0.0415898174224163</v>
+        <v>0.05286426382906832</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,22 +620,22 @@
         <v>31.307949</v>
       </c>
       <c r="O3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="P3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
       <c r="Q3">
-        <v>8.693434738575002</v>
+        <v>8.693434738575</v>
       </c>
       <c r="R3">
         <v>78.24091264717501</v>
       </c>
       <c r="S3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713033</v>
       </c>
       <c r="T3">
-        <v>0.649405219104094</v>
+        <v>0.6417658132713032</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -682,10 +682,10 @@
         <v>14.897188</v>
       </c>
       <c r="O4">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="P4">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
       <c r="Q4">
         <v>4.1365766779</v>
@@ -694,10 +694,10 @@
         <v>37.2291901011</v>
       </c>
       <c r="S4">
-        <v>0.3090049634734897</v>
+        <v>0.3053699228996285</v>
       </c>
       <c r="T4">
-        <v>0.3090049634734898</v>
+        <v>0.3053699228996284</v>
       </c>
     </row>
   </sheetData>
